--- a/Reporte Paridade CVC - Balneario Camboriu.xlsx
+++ b/Reporte Paridade CVC - Balneario Camboriu.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel.Farias\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481C5752-5C4F-4A17-9A44-098EE219E4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-90" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="IN_2021-11-28 - OUT_2021-11-30" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IN_2021-11-28 - OUT_2021-11-30" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Nome</t>
   </si>
@@ -67,41 +62,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="00008000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -114,46 +108,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -441,22 +418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,147 +445,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>448</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>354</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>-21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>302</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>342</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>416</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>444</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>424</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>454</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>536</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>704</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>562</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>550</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="n">
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>626</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>432</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>-31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>704</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>580</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>-18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>712</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>562</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>-21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>746</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>544</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>-27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Reporte Paridade CVC - Balneario Camboriu.xlsx
+++ b/Reporte Paridade CVC - Balneario Camboriu.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel.Farias\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7FDEED-3A78-4BA0-8ED3-D5D54C750C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IN_2021-11-28 - OUT_2021-11-30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="IN_2021-11-28 - OUT_2021-11-30" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nome</t>
   </si>
@@ -29,73 +45,80 @@
     <t>% Diferença</t>
   </si>
   <si>
-    <t>Brasil Express Hotel</t>
-  </si>
-  <si>
-    <t>Hotel Vieiras</t>
-  </si>
-  <si>
-    <t>Hotel Geranium</t>
-  </si>
-  <si>
-    <t>Hotel Bella Camboriú</t>
-  </si>
-  <si>
-    <t>Flat Concept</t>
-  </si>
-  <si>
-    <t>Hotel Itália</t>
-  </si>
-  <si>
-    <t>Hotel Pires</t>
-  </si>
-  <si>
-    <t>Hotel Ryan</t>
-  </si>
-  <si>
-    <t>Atobá Praia Hotel</t>
-  </si>
-  <si>
-    <t>Hamburgo Palace Hotel</t>
+    <t>HOTEL VIEIRAS</t>
+  </si>
+  <si>
+    <t>HOTEL GERANIUM</t>
+  </si>
+  <si>
+    <t>ATOBA PRAIA HOTEL</t>
+  </si>
+  <si>
+    <t>FLAT CONCEPT</t>
+  </si>
+  <si>
+    <t>MARAMBAIA HOTEL E CONVENCOES</t>
+  </si>
+  <si>
+    <t>HOTEL ITALIA</t>
+  </si>
+  <si>
+    <t>HOTEL BLUMENHOF BALNEARIO CAMBORIU</t>
+  </si>
+  <si>
+    <t>HOTEL PIRES</t>
+  </si>
+  <si>
+    <t>HOTEL RYAN</t>
+  </si>
+  <si>
+    <t>HOTEL PLAZA CAMBORIU</t>
+  </si>
+  <si>
+    <t>HAMBURGO PALACE HOTEL</t>
+  </si>
+  <si>
+    <t>BRUT BY SLAVIERO HOTEIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -108,29 +131,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -418,20 +458,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,147 +487,175 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>448</v>
-      </c>
-      <c r="C2" t="n">
-        <v>354</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2">
+        <v>302</v>
+      </c>
+      <c r="C2">
+        <v>342</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>302</v>
-      </c>
-      <c r="C3" t="n">
-        <v>342</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3">
+        <v>416</v>
+      </c>
+      <c r="C3">
+        <v>444</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
-        <v>416</v>
-      </c>
-      <c r="C4" t="n">
-        <v>444</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4">
+        <v>712</v>
+      </c>
+      <c r="C4">
+        <v>562</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>424</v>
-      </c>
-      <c r="C5" t="n">
-        <v>454</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5">
+        <v>536</v>
+      </c>
+      <c r="C5">
+        <v>704</v>
+      </c>
+      <c r="D5" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
-        <v>536</v>
-      </c>
-      <c r="C6" t="n">
-        <v>704</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6">
+        <v>546</v>
+      </c>
+      <c r="C6">
+        <v>530</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>562</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>550</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3">
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="n">
-        <v>626</v>
-      </c>
-      <c r="C8" t="n">
-        <v>432</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8">
+        <v>600</v>
+      </c>
+      <c r="C8">
+        <v>452</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="n">
-        <v>704</v>
-      </c>
-      <c r="C9" t="n">
-        <v>580</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9">
+        <v>626</v>
+      </c>
+      <c r="C9">
+        <v>432</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="n">
-        <v>712</v>
-      </c>
-      <c r="C10" t="n">
-        <v>562</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10">
+        <v>704</v>
+      </c>
+      <c r="C10">
+        <v>580</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
+        <v>816</v>
+      </c>
+      <c r="C11">
         <v>746</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" s="3">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>746</v>
+      </c>
+      <c r="C12">
         <v>544</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D12" s="3">
         <v>-27</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>942</v>
+      </c>
+      <c r="C13">
+        <v>646</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-31</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>